--- a/Parsing table.xlsx
+++ b/Parsing table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\source\repos\MathFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C09EB9D-8396-435C-84F9-461DA56086AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B879CF37-8D28-4B4C-9320-73BFEBD52BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{D41D2FE2-1F4F-47CD-82F6-28768043D6EC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="178" activeTab="1" xr2:uid="{D41D2FE2-1F4F-47CD-82F6-28768043D6EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>State</t>
   </si>
@@ -45,6 +46,9 @@
     <t>print</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>number</t>
   </si>
   <si>
@@ -70,9 +74,6 @@
   </si>
   <si>
     <t>Factor</t>
-  </si>
-  <si>
-    <t>Identifier</t>
   </si>
   <si>
     <t xml:space="preserve">StatementList </t>
@@ -114,6 +115,231 @@
 Expression → Expression + Term | Expression - Term | Term
 Term → Term * Factor | Term / Factor | Factor
 Factor → ( Expression ) | number | ID</t>
+  </si>
+  <si>
+    <t>Program → StatementList</t>
+  </si>
+  <si>
+    <t>StatementList → Statement</t>
+  </si>
+  <si>
+    <t>StatementList → Statement StatementList</t>
+  </si>
+  <si>
+    <t>Statement → Declaration ;</t>
+  </si>
+  <si>
+    <t>Statement → Assignment ;</t>
+  </si>
+  <si>
+    <t>Statement → PrintStatement ;</t>
+  </si>
+  <si>
+    <t>Declaration → num ID</t>
+  </si>
+  <si>
+    <t>Declaration → num ID = Expression</t>
+  </si>
+  <si>
+    <t>Assignment → ID = Expression</t>
+  </si>
+  <si>
+    <t>PrintStatement → print ( Expression )</t>
+  </si>
+  <si>
+    <t>Expression → Expression + Term</t>
+  </si>
+  <si>
+    <t>Expression → Expression - Term</t>
+  </si>
+  <si>
+    <t>Expression → Term</t>
+  </si>
+  <si>
+    <t>Term → Term * Factor</t>
+  </si>
+  <si>
+    <t>Term → Factor</t>
+  </si>
+  <si>
+    <t>Factor → ( Expression )</t>
+  </si>
+  <si>
+    <t>Factor → number</t>
+  </si>
+  <si>
+    <t>Factor → ID</t>
+  </si>
+  <si>
+    <t>Program → .StatementList</t>
+  </si>
+  <si>
+    <t>Program → StatementList.</t>
+  </si>
+  <si>
+    <t>StatementList → .Statement</t>
+  </si>
+  <si>
+    <t>StatementList → Statement.</t>
+  </si>
+  <si>
+    <t>StatementList → .Statement StatementList</t>
+  </si>
+  <si>
+    <t>StatementList → Statement. StatementList</t>
+  </si>
+  <si>
+    <t>StatementList → Statement StatementList.</t>
+  </si>
+  <si>
+    <t>Statement → .Declaration ;</t>
+  </si>
+  <si>
+    <t>Statement → Declaration. ;</t>
+  </si>
+  <si>
+    <t>Statement → Declaration ;.</t>
+  </si>
+  <si>
+    <t>Statement → .Assignment ;</t>
+  </si>
+  <si>
+    <t>Statement → Assignment. ;</t>
+  </si>
+  <si>
+    <t>Statement → Assignment ;.</t>
+  </si>
+  <si>
+    <t>Statement → .PrintStatement ;</t>
+  </si>
+  <si>
+    <t>Statement → PrintStatement. ;</t>
+  </si>
+  <si>
+    <t>Statement → PrintStatement ;.</t>
+  </si>
+  <si>
+    <t>Declaration → .num ID</t>
+  </si>
+  <si>
+    <t>Declaration → num. ID</t>
+  </si>
+  <si>
+    <t>Declaration → num ID.</t>
+  </si>
+  <si>
+    <t>Declaration → .num ID = Expression</t>
+  </si>
+  <si>
+    <t>Declaration → num. ID = Expression</t>
+  </si>
+  <si>
+    <t>Declaration → num ID. = Expression</t>
+  </si>
+  <si>
+    <t>Declaration → num ID =. Expression</t>
+  </si>
+  <si>
+    <t>Declaration → num ID = Expression.</t>
+  </si>
+  <si>
+    <t>Assignment → .ID = Expression</t>
+  </si>
+  <si>
+    <t>Assignment → ID. = Expression</t>
+  </si>
+  <si>
+    <t>Assignment → ID =. Expression</t>
+  </si>
+  <si>
+    <t>Assignment → ID = Expression.</t>
+  </si>
+  <si>
+    <t>PrintStatement → .print ( Expression )</t>
+  </si>
+  <si>
+    <t>PrintStatement → print. ( Expression )</t>
+  </si>
+  <si>
+    <t>PrintStatement → print (. Expression )</t>
+  </si>
+  <si>
+    <t>PrintStatement → print ( Expression. )</t>
+  </si>
+  <si>
+    <t>PrintStatement → print ( Expression ).</t>
+  </si>
+  <si>
+    <t>Expression → .Expression + Term</t>
+  </si>
+  <si>
+    <t>Expression → Expression. + Term</t>
+  </si>
+  <si>
+    <t>Expression → Expression +. Term</t>
+  </si>
+  <si>
+    <t>Expression → Expression + Term.</t>
+  </si>
+  <si>
+    <t>Expression → .Expression - Term</t>
+  </si>
+  <si>
+    <t>Expression → Expression. - Term</t>
+  </si>
+  <si>
+    <t>Expression → Expression -. Term</t>
+  </si>
+  <si>
+    <t>Expression → Expression - Term.</t>
+  </si>
+  <si>
+    <t>Expression → .Term</t>
+  </si>
+  <si>
+    <t>Expression → Term.</t>
+  </si>
+  <si>
+    <t>Term → .Term * Factor</t>
+  </si>
+  <si>
+    <t>Term → Term. * Factor</t>
+  </si>
+  <si>
+    <t>Term → Term *. Factor</t>
+  </si>
+  <si>
+    <t>Term → Term * Factor.</t>
+  </si>
+  <si>
+    <t>Term → .Factor</t>
+  </si>
+  <si>
+    <t>Term → Factor.</t>
+  </si>
+  <si>
+    <t>Factor → .( Expression )</t>
+  </si>
+  <si>
+    <t>Factor → (. Expression )</t>
+  </si>
+  <si>
+    <t>Factor → ( Expression. )</t>
+  </si>
+  <si>
+    <t>Factor → ( Expression ).</t>
+  </si>
+  <si>
+    <t>Factor → .number</t>
+  </si>
+  <si>
+    <t>Factor → number.</t>
+  </si>
+  <si>
+    <t>Factor → .ID</t>
+  </si>
+  <si>
+    <t>Factor → ID.</t>
   </si>
 </sst>
 </file>
@@ -129,15 +355,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -335,32 +567,203 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -675,121 +1078,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8362924D-34E1-4186-8B72-BE097A2596B4}">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
     <col min="16" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
-    <col min="19" max="19" width="6.42578125" customWidth="1"/>
+    <col min="17" max="18" width="15.140625" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" customWidth="1"/>
     <col min="20" max="21" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="28" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="22">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="7"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
@@ -811,11 +1214,11 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="14"/>
+      <c r="U3" s="6"/>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="22">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
@@ -837,11 +1240,11 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="14"/>
+      <c r="U4" s="6"/>
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
@@ -863,11 +1266,11 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-      <c r="U5" s="14"/>
+      <c r="U5" s="6"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="22">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
@@ -889,11 +1292,11 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="14"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
@@ -915,11 +1318,11 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="14"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
@@ -941,11 +1344,11 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="14"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
@@ -967,11 +1370,11 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="14"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="22">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
@@ -993,11 +1396,11 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="14"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
@@ -1019,11 +1422,11 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="14"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="22">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
@@ -1045,11 +1448,11 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="14"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="23">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
@@ -1071,11 +1474,11 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="14"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="22">
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
@@ -1097,11 +1500,11 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="14"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
@@ -1123,11 +1526,11 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="14"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="22">
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
@@ -1149,11 +1552,11 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="14"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
       <c r="B17" s="2"/>
@@ -1175,11 +1578,11 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="14"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="22">
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
@@ -1201,11 +1604,11 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="14"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="23">
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
@@ -1227,11 +1630,11 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="14"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="22">
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
@@ -1253,11 +1656,11 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="14"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="23">
         <v>19</v>
       </c>
       <c r="B21" s="2"/>
@@ -1279,11 +1682,11 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="14"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="22">
         <v>20</v>
       </c>
       <c r="B22" s="2"/>
@@ -1305,11 +1708,11 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="14"/>
+      <c r="U22" s="6"/>
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="23">
         <v>21</v>
       </c>
       <c r="B23" s="2"/>
@@ -1331,11 +1734,11 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="14"/>
+      <c r="U23" s="6"/>
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="22">
         <v>22</v>
       </c>
       <c r="B24" s="2"/>
@@ -1357,11 +1760,11 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="14"/>
+      <c r="U24" s="6"/>
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25" s="24">
         <v>23</v>
       </c>
       <c r="B25" s="2"/>
@@ -1383,400 +1786,801 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="14"/>
+      <c r="U25" s="6"/>
       <c r="V25" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A29:F43"/>
+    <mergeCell ref="A29:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB23F7-7A05-4EB1-8F26-C1B8B792E802}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Parsing table.xlsx
+++ b/Parsing table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\source\repos\MathFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B879CF37-8D28-4B4C-9320-73BFEBD52BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED91905-2F78-4420-8170-2E7C289355ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="178" activeTab="1" xr2:uid="{D41D2FE2-1F4F-47CD-82F6-28768043D6EC}"/>
   </bookViews>
@@ -346,13 +346,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -369,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -611,13 +618,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -632,7 +654,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -650,7 +672,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -665,7 +687,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -677,40 +699,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -730,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -746,16 +740,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -764,6 +756,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1080,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8362924D-34E1-4186-8B72-BE097A2596B4}">
   <dimension ref="A1:V48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,75 +1093,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="V1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="20">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
@@ -1192,7 +1187,7 @@
       <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
@@ -1218,7 +1213,7 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="20">
         <v>2</v>
       </c>
       <c r="B4" s="2"/>
@@ -1244,7 +1239,7 @@
       <c r="V4" s="1"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
       <c r="B5" s="2"/>
@@ -1270,7 +1265,7 @@
       <c r="V5" s="1"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
       <c r="B6" s="2"/>
@@ -1296,7 +1291,7 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="21">
         <v>5</v>
       </c>
       <c r="B7" s="2"/>
@@ -1322,7 +1317,7 @@
       <c r="V7" s="1"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>6</v>
       </c>
       <c r="B8" s="2"/>
@@ -1348,7 +1343,7 @@
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="21">
         <v>7</v>
       </c>
       <c r="B9" s="2"/>
@@ -1374,7 +1369,7 @@
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="20">
         <v>8</v>
       </c>
       <c r="B10" s="2"/>
@@ -1400,7 +1395,7 @@
       <c r="V10" s="1"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="21">
         <v>9</v>
       </c>
       <c r="B11" s="2"/>
@@ -1426,7 +1421,7 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
+      <c r="A12" s="20">
         <v>10</v>
       </c>
       <c r="B12" s="2"/>
@@ -1452,7 +1447,7 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="21">
         <v>11</v>
       </c>
       <c r="B13" s="2"/>
@@ -1478,7 +1473,7 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
       <c r="B14" s="2"/>
@@ -1504,7 +1499,7 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="21">
         <v>13</v>
       </c>
       <c r="B15" s="2"/>
@@ -1530,7 +1525,7 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
+      <c r="A16" s="20">
         <v>14</v>
       </c>
       <c r="B16" s="2"/>
@@ -1556,7 +1551,7 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="21">
         <v>15</v>
       </c>
       <c r="B17" s="2"/>
@@ -1582,7 +1577,7 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
       <c r="B18" s="2"/>
@@ -1608,7 +1603,7 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
+      <c r="A19" s="21">
         <v>17</v>
       </c>
       <c r="B19" s="2"/>
@@ -1634,7 +1629,7 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
+      <c r="A20" s="20">
         <v>18</v>
       </c>
       <c r="B20" s="2"/>
@@ -1660,7 +1655,7 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="21">
         <v>19</v>
       </c>
       <c r="B21" s="2"/>
@@ -1686,7 +1681,7 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
+      <c r="A22" s="20">
         <v>20</v>
       </c>
       <c r="B22" s="2"/>
@@ -1712,7 +1707,7 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="21">
         <v>21</v>
       </c>
       <c r="B23" s="2"/>
@@ -1738,7 +1733,7 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
+      <c r="A24" s="20">
         <v>22</v>
       </c>
       <c r="B24" s="2"/>
@@ -1764,7 +1759,7 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24">
+      <c r="A25" s="22">
         <v>23</v>
       </c>
       <c r="B25" s="2"/>
@@ -2282,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95DB23F7-7A05-4EB1-8F26-C1B8B792E802}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,119 +2306,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="12" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2474,12 +2469,12 @@
       <c r="Q3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -2520,10 +2515,10 @@
         <v>92</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="15"/>
+      <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2554,10 +2549,10 @@
         <v>93</v>
       </c>
       <c r="Q5" s="1"/>
-      <c r="R5" s="15"/>
+      <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2578,7 +2573,16 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="17"/>
+      <c r="R6" s="16"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parsing table.xlsx
+++ b/Parsing table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\source\repos\MathFlow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506DDFC0-D754-40EC-8AA9-EF10292F022F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B185BCBE-517C-4A7A-B160-5AF3A881469A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" tabRatio="291" xr2:uid="{D41D2FE2-1F4F-47CD-82F6-28768043D6EC}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="291" xr2:uid="{D41D2FE2-1F4F-47CD-82F6-28768043D6EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Parsing table" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>num</t>
-  </si>
-  <si>
     <t>print</t>
   </si>
   <si>
@@ -280,52 +277,6 @@
         <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> → PrintStatement ;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Declaration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> → num id</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Declaration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> → num id = Expression</t>
     </r>
   </si>
   <si>
@@ -1798,6 +1749,55 @@
         <charset val="204"/>
       </rPr>
       <t>44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Declaration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> → type id</t>
+    </r>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Declaration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> → type id = Expression</t>
     </r>
   </si>
 </sst>
@@ -1805,14 +1805,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2462,128 +2455,147 @@
   </cellStyleXfs>
   <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2592,45 +2604,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2950,7 +2943,10 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,159 +2971,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="56"/>
-      <c r="Z1" s="54" t="s">
+      <c r="A1" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="68"/>
+      <c r="Z1" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="68"/>
+    </row>
+    <row r="2" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" s="55"/>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="55"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="56"/>
-    </row>
-    <row r="2" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="66"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="71"/>
       <c r="Z2" s="36">
         <v>0</v>
       </c>
-      <c r="AA2" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
+      <c r="AA2" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="65"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="J3" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="20" t="s">
+      <c r="N3" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="V3" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="W3" s="70" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="71" t="s">
-        <v>89</v>
+      <c r="X3" s="52" t="s">
+        <v>86</v>
       </c>
       <c r="Z3" s="37">
         <v>1</v>
       </c>
       <c r="AA3" s="57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB3" s="58"/>
       <c r="AC3" s="58"/>
@@ -3140,14 +3136,14 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -3164,13 +3160,13 @@
       <c r="Q4" s="41">
         <v>2</v>
       </c>
-      <c r="R4" s="77">
+      <c r="R4" s="55">
         <v>3</v>
       </c>
-      <c r="S4" s="77">
+      <c r="S4" s="55">
         <v>4</v>
       </c>
-      <c r="T4" s="77">
+      <c r="T4" s="55">
         <v>5</v>
       </c>
       <c r="U4" s="41"/>
@@ -3181,7 +3177,7 @@
         <v>2</v>
       </c>
       <c r="AA4" s="57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB4" s="58"/>
       <c r="AC4" s="58"/>
@@ -3194,14 +3190,14 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -3211,7 +3207,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="O5" s="43"/>
       <c r="P5" s="44"/>
@@ -3235,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="AA5" s="57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB5" s="58"/>
       <c r="AC5" s="58"/>
@@ -3248,14 +3244,14 @@
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -3265,7 +3261,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O6" s="43"/>
       <c r="P6" s="44"/>
@@ -3281,7 +3277,7 @@
         <v>4</v>
       </c>
       <c r="AA6" s="57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB6" s="58"/>
       <c r="AC6" s="58"/>
@@ -3293,7 +3289,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -3321,7 +3317,7 @@
         <v>5</v>
       </c>
       <c r="AA7" s="57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB7" s="58"/>
       <c r="AC7" s="58"/>
@@ -3333,7 +3329,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3361,7 +3357,7 @@
         <v>6</v>
       </c>
       <c r="AA8" s="57" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AB8" s="58"/>
       <c r="AC8" s="58"/>
@@ -3373,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3401,7 +3397,7 @@
         <v>7</v>
       </c>
       <c r="AA9" s="57" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="AB9" s="58"/>
       <c r="AC9" s="58"/>
@@ -3415,7 +3411,7 @@
       <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -3441,7 +3437,7 @@
         <v>8</v>
       </c>
       <c r="AA10" s="57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB10" s="58"/>
       <c r="AC10" s="58"/>
@@ -3456,7 +3452,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -3481,7 +3477,7 @@
         <v>9</v>
       </c>
       <c r="AA11" s="57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB11" s="58"/>
       <c r="AC11" s="58"/>
@@ -3498,7 +3494,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -3521,7 +3517,7 @@
         <v>10</v>
       </c>
       <c r="AA12" s="57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AB12" s="58"/>
       <c r="AC12" s="58"/>
@@ -3534,14 +3530,14 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -3551,7 +3547,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O13" s="43"/>
       <c r="P13" s="44"/>
@@ -3567,7 +3563,7 @@
         <v>11</v>
       </c>
       <c r="AA13" s="57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB13" s="58"/>
       <c r="AC13" s="58"/>
@@ -3580,14 +3576,14 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -3597,7 +3593,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O14" s="43"/>
       <c r="P14" s="44"/>
@@ -3613,7 +3609,7 @@
         <v>12</v>
       </c>
       <c r="AA14" s="57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AB14" s="58"/>
       <c r="AC14" s="58"/>
@@ -3626,14 +3622,14 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -3643,7 +3639,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O15" s="43"/>
       <c r="P15" s="44"/>
@@ -3659,7 +3655,7 @@
         <v>13</v>
       </c>
       <c r="AA15" s="57" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AB15" s="58"/>
       <c r="AC15" s="58"/>
@@ -3672,14 +3668,14 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -3689,7 +3685,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O16" s="43"/>
       <c r="P16" s="44"/>
@@ -3705,7 +3701,7 @@
         <v>14</v>
       </c>
       <c r="AA16" s="57" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB16" s="58"/>
       <c r="AC16" s="58"/>
@@ -3717,12 +3713,12 @@
         <v>13</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
@@ -3747,7 +3743,7 @@
         <v>15</v>
       </c>
       <c r="AA17" s="57" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="AB17" s="58"/>
       <c r="AC17" s="58"/>
@@ -3761,22 +3757,22 @@
       <c r="B18" s="9"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N18" s="10"/>
       <c r="O18" s="43"/>
@@ -3801,7 +3797,7 @@
         <v>16</v>
       </c>
       <c r="AA18" s="57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AB18" s="58"/>
       <c r="AC18" s="58"/>
@@ -3815,22 +3811,22 @@
       <c r="B19" s="9"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N19" s="10"/>
       <c r="O19" s="43"/>
@@ -3855,7 +3851,7 @@
         <v>17</v>
       </c>
       <c r="AA19" s="57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AB19" s="58"/>
       <c r="AC19" s="58"/>
@@ -3869,22 +3865,22 @@
       <c r="B20" s="9"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N20" s="10"/>
       <c r="O20" s="43"/>
@@ -3905,23 +3901,23 @@
       <c r="X20" s="45">
         <v>23</v>
       </c>
-      <c r="Z20" s="76">
+      <c r="Z20" s="54">
         <v>18</v>
       </c>
-      <c r="AA20" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="75"/>
+      <c r="AA20" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="78"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>17</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -3930,10 +3926,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -3953,7 +3949,7 @@
         <v>19</v>
       </c>
       <c r="AA21" s="57" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AB21" s="58"/>
       <c r="AC21" s="58"/>
@@ -3965,7 +3961,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -3974,16 +3970,16 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="10"/>
@@ -4000,20 +3996,20 @@
       <c r="Z22" s="39">
         <v>20</v>
       </c>
-      <c r="AA22" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="53"/>
+      <c r="AA22" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="62"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>19</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -4022,16 +4018,16 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J23" s="28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L23" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="10"/>
@@ -4053,22 +4049,22 @@
       <c r="B24" s="9"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="29"/>
       <c r="J24" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N24" s="10"/>
       <c r="O24" s="43"/>
@@ -4095,7 +4091,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -4104,16 +4100,16 @@
       <c r="G25" s="5"/>
       <c r="H25" s="25"/>
       <c r="I25" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K25" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="10"/>
@@ -4133,7 +4129,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -4142,16 +4138,16 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K26" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L26" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" s="10"/>
@@ -4171,7 +4167,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -4180,16 +4176,16 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="K27" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="30" t="s">
+      <c r="L27" s="30" t="s">
         <v>93</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="L27" s="30" t="s">
-        <v>96</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="10"/>
@@ -4211,22 +4207,22 @@
       <c r="B28" s="9"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N28" s="10"/>
       <c r="O28" s="43"/>
@@ -4255,13 +4251,13 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -4289,19 +4285,19 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="10"/>
@@ -4327,19 +4323,19 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="10"/>
@@ -4361,22 +4357,22 @@
       <c r="B32" s="9"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="43"/>
@@ -4409,19 +4405,19 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="10"/>
@@ -4447,19 +4443,19 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="10"/>
@@ -4485,19 +4481,19 @@
       <c r="F35" s="15"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="I35" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="L35" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="3"/>
@@ -4519,22 +4515,22 @@
       <c r="B36" s="9"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N36" s="10"/>
       <c r="O36" s="43"/>
@@ -4557,7 +4553,7 @@
         <v>33</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -4566,10 +4562,10 @@
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
       <c r="I37" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -4593,22 +4589,22 @@
       <c r="B38" s="15"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N38" s="10"/>
       <c r="O38" s="43"/>
@@ -4635,22 +4631,22 @@
       <c r="B39" s="15"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
       <c r="J39" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="43"/>
@@ -4677,22 +4673,22 @@
       <c r="B40" s="32"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
       <c r="J40" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N40" s="10"/>
       <c r="O40" s="46"/>
@@ -4717,22 +4713,22 @@
       <c r="B41" s="32"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
       <c r="J41" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N41" s="10"/>
       <c r="O41" s="46"/>
@@ -4761,13 +4757,13 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -4789,7 +4785,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -4798,16 +4794,16 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="10"/>
@@ -4827,7 +4823,7 @@
         <v>40</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -4859,22 +4855,22 @@
       <c r="B45" s="32"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N45" s="10"/>
       <c r="O45" s="46"/>
@@ -4901,22 +4897,22 @@
       <c r="B46" s="32"/>
       <c r="C46" s="2"/>
       <c r="D46" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="46"/>
@@ -4943,22 +4939,22 @@
       <c r="B47" s="11"/>
       <c r="C47" s="2"/>
       <c r="D47" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N47" s="3"/>
       <c r="O47" s="46"/>
@@ -4983,22 +4979,22 @@
       <c r="B48" s="11"/>
       <c r="C48" s="2"/>
       <c r="D48" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N48" s="3"/>
       <c r="O48" s="46"/>
@@ -5027,13 +5023,13 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -5060,19 +5056,19 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="3"/>
@@ -5092,7 +5088,7 @@
         <v>47</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -5101,16 +5097,16 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J51" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="3"/>
@@ -5130,7 +5126,7 @@
         <v>48</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -5139,16 +5135,16 @@
       <c r="G52" s="2"/>
       <c r="H52" s="34"/>
       <c r="I52" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J52" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="3"/>
@@ -5161,14 +5157,14 @@
       <c r="U52" s="44"/>
       <c r="V52" s="44"/>
       <c r="W52" s="44"/>
-      <c r="X52" s="78"/>
+      <c r="X52" s="56"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>49</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -5177,16 +5173,16 @@
       <c r="G53" s="2"/>
       <c r="H53" s="34"/>
       <c r="I53" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J53" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K53" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L53" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="3"/>
@@ -5199,14 +5195,14 @@
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="78"/>
+      <c r="X53" s="56"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>50</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -5215,16 +5211,16 @@
       <c r="G54" s="2"/>
       <c r="H54" s="34"/>
       <c r="I54" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J54" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K54" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L54" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="3"/>
@@ -5237,14 +5233,14 @@
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="78"/>
+      <c r="X54" s="56"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>51</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -5253,16 +5249,16 @@
       <c r="G55" s="5"/>
       <c r="H55" s="25"/>
       <c r="I55" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J55" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K55" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L55" s="30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="10"/>
@@ -5275,7 +5271,7 @@
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="78"/>
+      <c r="X55" s="56"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
@@ -5288,19 +5284,19 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I56" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J56" s="30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="10"/>
@@ -5313,7 +5309,7 @@
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="78"/>
+      <c r="X56" s="56"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
@@ -5326,19 +5322,19 @@
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I57" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J57" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M57" s="5"/>
       <c r="N57" s="10"/>
@@ -5351,7 +5347,7 @@
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
-      <c r="X57" s="78"/>
+      <c r="X57" s="56"/>
     </row>
     <row r="58" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
@@ -5364,19 +5360,19 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I58" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J58" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K58" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L58" s="30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M58" s="5"/>
       <c r="N58" s="10"/>
@@ -5389,7 +5385,7 @@
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
-      <c r="X58" s="78"/>
+      <c r="X58" s="56"/>
     </row>
     <row r="59" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
@@ -5402,19 +5398,19 @@
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I59" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J59" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K59" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="L59" s="30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="10"/>
@@ -5427,7 +5423,7 @@
       <c r="U59" s="44"/>
       <c r="V59" s="44"/>
       <c r="W59" s="44"/>
-      <c r="X59" s="78"/>
+      <c r="X59" s="56"/>
     </row>
     <row r="60" spans="1:24" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
@@ -5440,19 +5436,19 @@
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I60" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J60" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L60" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M60" s="13"/>
       <c r="N60" s="14"/>
@@ -5515,6 +5511,16 @@
     <row r="76" spans="23:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="AA17:AE17"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AA15:AE15"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AA5:AE5"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="AA7:AE7"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AA9:AE9"/>
     <mergeCell ref="AA21:AE21"/>
     <mergeCell ref="AA22:AE22"/>
     <mergeCell ref="AA2:AE2"/>
@@ -5531,18 +5537,8 @@
     <mergeCell ref="AA11:AE11"/>
     <mergeCell ref="AA12:AE12"/>
     <mergeCell ref="AA13:AE13"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="AA15:AE15"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="AA5:AE5"/>
-    <mergeCell ref="AA6:AE6"/>
-    <mergeCell ref="AA7:AE7"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AA9:AE9"/>
-    <mergeCell ref="AA16:AE16"/>
-    <mergeCell ref="AA17:AE17"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
